--- a/Descargas/R15_Corte De Apelaciones De Antofagasta_Ingresos Corte_2020-Noviembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De Antofagasta_Ingresos Corte_2020-Noviembre.xlsx
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
